--- a/Documents/Requirement Attributes.xlsx
+++ b/Documents/Requirement Attributes.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>by popularity, name, oldest, latest</t>
+  </si>
+  <si>
+    <t>Compare products</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +452,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -559,11 +586,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,15 +649,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,27 +681,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,6 +697,133 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -966,7 +1137,7 @@
     <col min="2" max="2" width="58.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
@@ -974,19 +1145,19 @@
     <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
       <c r="B1" s="31"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="19"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="17"/>
       <c r="B2" s="32" t="s">
         <v>28</v>
       </c>
@@ -996,1034 +1167,1060 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" s="18" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="36" t="s">
+      <c r="C21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="38"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="36" t="s">
+      <c r="C22" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="38"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="36" t="s">
+      <c r="C23" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="38"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="36" t="s">
+      <c r="C24" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="38"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="38"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="C27" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="C28" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="C29" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="C30" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="C31" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="C32" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="s">
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="C33" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3" t="s">
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="C34" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="C35" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="C36" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="C37" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="C38" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="C39" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="C40" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="C41" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="38"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+    </row>
+    <row r="42" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="71"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="C45" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="C46" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="C47" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B48" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="C48" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B49" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="C49" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B50" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="C50" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E50" s="9"/>
-      <c r="F50" s="7"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E51" s="9"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="9"/>
-      <c r="F52" s="7"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E53" s="9"/>
-      <c r="F53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E54" s="9"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E55" s="9"/>
-      <c r="F55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E56" s="9"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E57" s="9"/>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E58" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A16:I16"/>
@@ -2032,16 +2229,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F15 F17:F25 F27:F42 F44:F55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F15 F17:F25 F27:F43 F45:F56">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D44:D49 D17:D25 D27:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D45:D50 D17:D25 D27:D43">
       <formula1>"New, Change"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C15 C44:C49 C17:C25 C27:C42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C15 C45:C50 C17:C25 C27:C43">
       <formula1>"Functional, Non-functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E15 E17:E25 E27:E42 E44:E57">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E15 E17:E25 E27:E43 E45:E58">
       <formula1>"Open, Committed, Designed, Implemented, Tested, Deployed, Accepted, Cancelled"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/Requirement Attributes.xlsx
+++ b/Documents/Requirement Attributes.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>Compare products</t>
+  </si>
+  <si>
+    <t>Deployed</t>
+  </si>
+  <si>
+    <t>Tested</t>
+  </si>
+  <si>
+    <t>Implemented</t>
   </si>
 </sst>
 </file>
@@ -697,15 +706,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,15 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,9 +739,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,15 +755,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,6 +781,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -811,19 +803,36 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1146,8 +1155,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
@@ -1158,15 +1167,15 @@
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -1210,203 +1219,203 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="45" t="s">
+      <c r="C6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="45" t="s">
+      <c r="C7" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="45" t="s">
+      <c r="C8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="45" t="s">
+      <c r="C9" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="45" t="s">
+      <c r="C10" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="45" t="s">
+      <c r="C11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="C12" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45" t="s">
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="45" t="s">
+      <c r="C13" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
@@ -1431,201 +1440,201 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="C17" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="53" t="s">
+      <c r="C18" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="53" t="s">
+      <c r="C19" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="53" t="s">
+      <c r="C20" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="53" t="s">
+      <c r="C21" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="53" t="s">
+      <c r="C22" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="53" t="s">
+      <c r="C23" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="53" t="s">
+      <c r="C24" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
@@ -1639,554 +1648,554 @@
       <c r="I25" s="29"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="76"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="62" t="s">
+      <c r="C27" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="62" t="s">
+      <c r="C28" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="62" t="s">
+      <c r="C29" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="62" t="s">
+      <c r="C30" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="62" t="s">
+      <c r="C31" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="60" t="s">
+      <c r="B32" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="62" t="s">
+      <c r="C32" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62" t="s">
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="62" t="s">
+      <c r="C33" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62" t="s">
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="62" t="s">
+      <c r="C34" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="60" t="s">
+      <c r="B35" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="62" t="s">
+      <c r="C35" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="62" t="s">
+      <c r="C36" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="62" t="s">
+      <c r="C37" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="62" t="s">
+      <c r="C38" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="62" t="s">
+      <c r="C39" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="62" t="s">
+      <c r="C40" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="65" t="s">
+      <c r="B41" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="67" t="s">
+      <c r="C41" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-    </row>
-    <row r="42" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+    </row>
+    <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="62" t="s">
+      <c r="C42" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="67"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
       <c r="I43" s="27"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="71"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="66"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="75" t="s">
+      <c r="C45" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="75" t="s">
+      <c r="C46" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="73" t="s">
+      <c r="B47" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="75" t="s">
+      <c r="C47" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="75" t="s">
+      <c r="C48" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="75" t="s">
+      <c r="C49" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="75" t="s">
+      <c r="C50" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E51" s="8"/>

--- a/Documents/Requirement Attributes.xlsx
+++ b/Documents/Requirement Attributes.xlsx
@@ -242,9 +242,6 @@
     <t>PRODUCT MODULE</t>
   </si>
   <si>
-    <t>Best selling products</t>
-  </si>
-  <si>
     <t>Related products</t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>Implemented</t>
+  </si>
+  <si>
+    <t>Best selling/recommended products</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1245,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>11</v>
@@ -1268,7 +1268,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>11</v>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>11</v>
@@ -1408,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>10</v>
@@ -1466,7 +1466,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="46" t="s">
         <v>11</v>
@@ -1489,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="46" t="s">
         <v>11</v>
@@ -1535,7 +1535,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="46" t="s">
         <v>10</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="50" t="s">
         <v>50</v>
@@ -1674,7 +1674,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" s="52" t="s">
         <v>11</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>51</v>
@@ -1697,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" s="52" t="s">
         <v>11</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="50" t="s">
         <v>52</v>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>11</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>53</v>
@@ -1743,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" s="52" t="s">
         <v>10</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="50" t="s">
         <v>54</v>
@@ -1766,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>10</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="50" t="s">
         <v>55</v>
@@ -1789,7 +1789,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F32" s="52" t="s">
         <v>10</v>
@@ -1797,12 +1797,12 @@
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
       <c r="I32" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="50" t="s">
         <v>56</v>
@@ -1814,7 +1814,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F33" s="52" t="s">
         <v>10</v>
@@ -1822,15 +1822,15 @@
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
       <c r="I33" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C34" s="51" t="s">
         <v>7</v>
@@ -1839,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F34" s="52" t="s">
         <v>10</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>7</v>
@@ -1873,10 +1873,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="51" t="s">
         <v>7</v>
@@ -1885,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F36" s="52" t="s">
         <v>10</v>
@@ -1896,10 +1896,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>7</v>
@@ -1919,10 +1919,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C38" s="51" t="s">
         <v>7</v>
@@ -1931,7 +1931,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F38" s="52" t="s">
         <v>10</v>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>7</v>
@@ -1954,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" s="52" t="s">
         <v>10</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="51" t="s">
         <v>7</v>
@@ -1977,7 +1977,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="52" t="s">
         <v>10</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" s="56" t="s">
         <v>7</v>
@@ -2003,7 +2003,7 @@
         <v>9</v>
       </c>
       <c r="F41" s="57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G41" s="57"/>
       <c r="H41" s="57"/>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="51" t="s">
         <v>7</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" s="65"/>
       <c r="C44" s="65"/>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="61" t="s">
         <v>7</v>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="61" t="s">
         <v>7</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="61" t="s">
         <v>7</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="61" t="s">
         <v>7</v>
@@ -2153,10 +2153,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="61" t="s">
         <v>7</v>
@@ -2176,10 +2176,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" s="61" t="s">
         <v>7</v>
@@ -2188,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="E50" s="63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F50" s="62" t="s">
         <v>10</v>

--- a/Documents/Requirement Attributes.xlsx
+++ b/Documents/Requirement Attributes.xlsx
@@ -1137,7 +1137,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1360,7 +1360,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>11</v>
@@ -1512,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F19" s="46" t="s">
         <v>11</v>
@@ -1558,7 +1558,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F21" s="46" t="s">
         <v>11</v>
@@ -1581,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F22" s="46" t="s">
         <v>10</v>
@@ -1862,7 +1862,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F35" s="52" t="s">
         <v>10</v>
@@ -1908,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="F37" s="52" t="s">
         <v>10</v>

--- a/Documents/Requirement Attributes.xlsx
+++ b/Documents/Requirement Attributes.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -78,14 +78,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Use Case</t>
-  </si>
-  <si>
-    <t>ID of
-related
-requirements</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -173,15 +165,9 @@
     <t>Update profile</t>
   </si>
   <si>
-    <t>Verifying email address</t>
-  </si>
-  <si>
     <t>Change password</t>
   </si>
   <si>
-    <t>Password recovery</t>
-  </si>
-  <si>
     <t>Multi-language</t>
   </si>
   <si>
@@ -209,9 +195,6 @@
     <t>View, add, edit, delete orders</t>
   </si>
   <si>
-    <t>Managing orders</t>
-  </si>
-  <si>
     <t>Shop statistics</t>
   </si>
   <si>
@@ -308,9 +291,6 @@
     <t>REQ-030</t>
   </si>
   <si>
-    <t>REQ-0231</t>
-  </si>
-  <si>
     <t>Selecting payment method</t>
   </si>
   <si>
@@ -329,24 +309,6 @@
     <t>Confirm, save order to database</t>
   </si>
   <si>
-    <t>REQ-0232</t>
-  </si>
-  <si>
-    <t>REQ-0233</t>
-  </si>
-  <si>
-    <t>REQ-0234</t>
-  </si>
-  <si>
-    <t>REQ-0235</t>
-  </si>
-  <si>
-    <t>REQ-0236</t>
-  </si>
-  <si>
-    <t>REQ-0237</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -362,13 +324,109 @@
     <t>Deployed</t>
   </si>
   <si>
-    <t>Tested</t>
-  </si>
-  <si>
     <t>Implemented</t>
   </si>
   <si>
     <t>Best selling/recommended products</t>
+  </si>
+  <si>
+    <t>Managing orders, shipments</t>
+  </si>
+  <si>
+    <t>View, add, edit, delete coupons</t>
+  </si>
+  <si>
+    <t>View, add, edit, delete shippers</t>
+  </si>
+  <si>
+    <t>View, add, edit, delete product groups</t>
+  </si>
+  <si>
+    <t>View, add, edit, delete suppliers</t>
+  </si>
+  <si>
+    <t>View, add, edit, delete categories</t>
+  </si>
+  <si>
+    <t>View, add, edit, delete topics</t>
+  </si>
+  <si>
+    <t>Managing bestselling, recommended, special discount products</t>
+  </si>
+  <si>
+    <t>by name, id, ….</t>
+  </si>
+  <si>
+    <t>by product's features</t>
+  </si>
+  <si>
+    <t>Advanced searching products (customer side)</t>
+  </si>
+  <si>
+    <t>Send mail to customer's email contain orderdetails when checkedout successfully</t>
+  </si>
+  <si>
+    <t>Password recovery by email</t>
+  </si>
+  <si>
+    <t>Verifying email address (customer)</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Multi-areas authorization</t>
+  </si>
+  <si>
+    <t>REQ-031</t>
+  </si>
+  <si>
+    <t>REQ-032</t>
+  </si>
+  <si>
+    <t>REQ-033</t>
+  </si>
+  <si>
+    <t>REQ-034</t>
+  </si>
+  <si>
+    <t>REQ-035</t>
+  </si>
+  <si>
+    <t>REQ-036</t>
+  </si>
+  <si>
+    <t>REQ-037</t>
+  </si>
+  <si>
+    <t>REQ-038</t>
+  </si>
+  <si>
+    <t>REQ-039</t>
+  </si>
+  <si>
+    <t>REQ-040</t>
+  </si>
+  <si>
+    <t>REQ-041</t>
+  </si>
+  <si>
+    <t>REQ-042</t>
+  </si>
+  <si>
+    <t>REQ-043</t>
+  </si>
+  <si>
+    <t>REQ-044</t>
+  </si>
+  <si>
+    <t>REQ-045</t>
+  </si>
+  <si>
+    <t>REQ-046</t>
+  </si>
+  <si>
+    <t>REQ-047</t>
   </si>
 </sst>
 </file>
@@ -643,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -768,9 +826,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1134,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1148,53 +1203,45 @@
     <col min="4" max="4" width="12.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.21875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="1"/>
+    <col min="7" max="7" width="31.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67"/>
-      <c r="B1" s="68"/>
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
       <c r="E1" s="13"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="17"/>
-      <c r="B2" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="20"/>
       <c r="C3" s="18"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>3</v>
@@ -1203,232 +1250,218 @@
         <v>1</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="C7" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B8" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C8" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="F8" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="39" t="s">
+      <c r="G12" s="39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="39" t="s">
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1436,818 +1469,949 @@
       <c r="E15" s="7"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="72" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="44" t="s">
+      <c r="C27" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C28" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="46"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="F32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="75"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="52"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="52"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="52"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="52"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="45" t="s">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="52"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="52"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="52"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="52"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="52"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="G51" s="56"/>
+    </row>
+    <row r="52" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="56"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="61"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="61"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="F57" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="61"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="61"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="46" t="s">
+      <c r="G59" s="61"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-    </row>
-    <row r="42" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="66"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E51" s="8"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="8"/>
-      <c r="F52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E53" s="8"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E54" s="8"/>
-      <c r="F54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E55" s="8"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E56" s="8"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="8"/>
+      <c r="G60" s="61"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E61" s="8"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E62" s="8"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E63" s="8"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E64" s="8"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="8"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="8"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A54:G54"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A35:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F15 F17:F25 F27:F43 F45:F56">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36:F53 F55:F66 F18:F34 F6:F16">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D15 D45:D50 D17:D25 D27:D43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36:D53 D55:D60 D18:D34 D6:D16">
       <formula1>"New, Change"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C15 C45:C50 C17:C25 C27:C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C36:C53 C55:C60 C18:C34 C6:C16">
       <formula1>"Functional, Non-functional"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E15 E17:E25 E27:E43 E45:E58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E36:E53 E55:E68 E18:E34 E6:E16">
       <formula1>"Open, Committed, Designed, Implemented, Tested, Deployed, Accepted, Cancelled"</formula1>
     </dataValidation>
   </dataValidations>
